--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>1.793671204700333</v>
+        <v>4.290688162401667</v>
       </c>
       <c r="R2">
-        <v>16.143040842303</v>
+        <v>38.616193461615</v>
       </c>
       <c r="S2">
-        <v>0.001953857917052863</v>
+        <v>0.004603696911401475</v>
       </c>
       <c r="T2">
-        <v>0.001953857917052863</v>
+        <v>0.004603696911401476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>474.0109701552603</v>
+        <v>556.2511353868272</v>
       </c>
       <c r="R3">
-        <v>4266.098731397343</v>
+        <v>5006.260218481445</v>
       </c>
       <c r="S3">
-        <v>0.5163432876553842</v>
+        <v>0.5968300508025066</v>
       </c>
       <c r="T3">
-        <v>0.5163432876553842</v>
+        <v>0.5968300508025067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>55.91014688811034</v>
+        <v>1.389462339008333</v>
       </c>
       <c r="R4">
-        <v>503.191321992993</v>
+        <v>12.505161051075</v>
       </c>
       <c r="S4">
-        <v>0.06090329312008638</v>
+        <v>0.001490824603534196</v>
       </c>
       <c r="T4">
-        <v>0.06090329312008638</v>
+        <v>0.001490824603534196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>11.420477</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>34.261431</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.7139732327956666</v>
+        <v>1.308569675137</v>
       </c>
       <c r="R5">
-        <v>6.425759095161</v>
+        <v>11.777127076233</v>
       </c>
       <c r="S5">
-        <v>0.0007777357688555308</v>
+        <v>0.001404030762377713</v>
       </c>
       <c r="T5">
-        <v>0.0007777357688555309</v>
+        <v>0.001404030762377713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J6">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>0.6419412053443333</v>
+        <v>169.6449007658243</v>
       </c>
       <c r="R6">
-        <v>5.777470848099</v>
+        <v>1526.804106892419</v>
       </c>
       <c r="S6">
-        <v>0.0006992708045140477</v>
+        <v>0.1820206167705934</v>
       </c>
       <c r="T6">
-        <v>0.0006992708045140477</v>
+        <v>0.1820206167705934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>169.6449007658243</v>
+        <v>0.423756799085</v>
       </c>
       <c r="R7">
-        <v>1526.804106892419</v>
+        <v>3.813811191765</v>
       </c>
       <c r="S7">
-        <v>0.1847953134221889</v>
+        <v>0.0004546701585605381</v>
       </c>
       <c r="T7">
-        <v>0.1847953134221889</v>
+        <v>0.0004546701585605381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.420477</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H8">
-        <v>34.261431</v>
+        <v>3.733837</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,43 +933,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>20.00981394487433</v>
+        <v>0.1426089257656667</v>
       </c>
       <c r="R8">
-        <v>180.088325503869</v>
+        <v>1.283480331891</v>
       </c>
       <c r="S8">
-        <v>0.02179682279143199</v>
+        <v>0.0001530123481912974</v>
       </c>
       <c r="T8">
-        <v>0.02179682279143199</v>
+        <v>0.0001530123481912974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.420477</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H9">
-        <v>34.261431</v>
+        <v>3.733837</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02237433333333333</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N9">
-        <v>0.067123</v>
+        <v>44.563349</v>
       </c>
       <c r="O9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q9">
-        <v>0.2555255592236667</v>
+        <v>18.48803126001255</v>
       </c>
       <c r="R9">
-        <v>2.299730033013</v>
+        <v>166.392281340113</v>
       </c>
       <c r="S9">
-        <v>0.0002783456831944471</v>
+        <v>0.01983674627194824</v>
       </c>
       <c r="T9">
-        <v>0.0002783456831944471</v>
+        <v>0.01983674627194824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H10">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I10">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J10">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05620966666666666</v>
+        <v>0.037105</v>
       </c>
       <c r="N10">
-        <v>0.168629</v>
+        <v>0.111315</v>
       </c>
       <c r="O10">
-        <v>0.003368847317172573</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P10">
-        <v>0.003368847317172572</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q10">
-        <v>0.03842770114355555</v>
+        <v>0.04618134062833332</v>
       </c>
       <c r="R10">
-        <v>0.345849310292</v>
+        <v>0.415632065655</v>
       </c>
       <c r="S10">
-        <v>4.185954923997416E-05</v>
+        <v>4.955030222845053E-05</v>
       </c>
       <c r="T10">
-        <v>4.185954923997416E-05</v>
+        <v>4.955030222845053E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H11">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I11">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J11">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.85444966666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N11">
-        <v>44.563349</v>
+        <v>0.343743</v>
       </c>
       <c r="O11">
-        <v>0.8902805491515402</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P11">
-        <v>0.8902805491515401</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q11">
-        <v>10.15523461165022</v>
+        <v>1.150231413434333</v>
       </c>
       <c r="R11">
-        <v>91.39711150485201</v>
+        <v>10.352082720909</v>
       </c>
       <c r="S11">
-        <v>0.01106216428825204</v>
+        <v>0.001234141612020715</v>
       </c>
       <c r="T11">
-        <v>0.01106216428825204</v>
+        <v>0.001234141612020715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H12">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I12">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J12">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.752099666666667</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N12">
-        <v>5.256299</v>
+        <v>44.563349</v>
       </c>
       <c r="O12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q12">
-        <v>1.197821769050222</v>
+        <v>149.1176952189208</v>
       </c>
       <c r="R12">
-        <v>10.780395921452</v>
+        <v>1342.059256970287</v>
       </c>
       <c r="S12">
-        <v>0.001304795182385752</v>
+        <v>0.1599959369991585</v>
       </c>
       <c r="T12">
-        <v>0.001304795182385752</v>
+        <v>0.1599959369991585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H13">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I13">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J13">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02237433333333333</v>
+        <v>0.037105</v>
       </c>
       <c r="N13">
-        <v>0.067123</v>
+        <v>0.111315</v>
       </c>
       <c r="O13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q13">
-        <v>0.01529619806711111</v>
+        <v>0.3724817953716666</v>
       </c>
       <c r="R13">
-        <v>0.137665782604</v>
+        <v>3.352336158345</v>
       </c>
       <c r="S13">
-        <v>1.666224981251615E-05</v>
+        <v>0.0003996546069071542</v>
       </c>
       <c r="T13">
-        <v>1.666224981251615E-05</v>
+        <v>0.0003996546069071542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H14">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I14">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J14">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N14">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O14">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P14">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q14">
-        <v>0.5564468082313333</v>
+        <v>0.1520693060306667</v>
       </c>
       <c r="R14">
-        <v>5.008021274082</v>
+        <v>1.368623754276</v>
       </c>
       <c r="S14">
-        <v>0.000606141191781705</v>
+        <v>0.0001631628699160657</v>
       </c>
       <c r="T14">
-        <v>0.000606141191781705</v>
+        <v>0.0001631628699160656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H15">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I15">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J15">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>44.563349</v>
       </c>
       <c r="O15">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P15">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q15">
-        <v>147.0514165128713</v>
+        <v>19.71448889674089</v>
       </c>
       <c r="R15">
-        <v>1323.462748615842</v>
+        <v>177.430400070668</v>
       </c>
       <c r="S15">
-        <v>0.1601840814607455</v>
+        <v>0.02115267486439356</v>
       </c>
       <c r="T15">
-        <v>0.1601840814607455</v>
+        <v>0.02115267486439356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H16">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I16">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J16">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N16">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q16">
-        <v>17.34488612077133</v>
+        <v>0.04924491495333334</v>
       </c>
       <c r="R16">
-        <v>156.103975086942</v>
+        <v>0.44320423458</v>
       </c>
       <c r="S16">
-        <v>0.01889389927130556</v>
+        <v>5.283736647642817E-05</v>
       </c>
       <c r="T16">
-        <v>0.01889389927130556</v>
+        <v>5.283736647642816E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.899486</v>
+        <v>0.630923</v>
       </c>
       <c r="H17">
-        <v>29.698458</v>
+        <v>1.892769</v>
       </c>
       <c r="I17">
-        <v>0.1799253972395612</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J17">
-        <v>0.1799253972395612</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N17">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q17">
-        <v>0.2214943995926666</v>
+        <v>0.07229178826300001</v>
       </c>
       <c r="R17">
-        <v>1.993449596334</v>
+        <v>0.650626094367</v>
       </c>
       <c r="S17">
-        <v>0.0002412753157283942</v>
+        <v>7.75655255635674E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002412753157283942</v>
+        <v>7.756552556356739E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H18">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I18">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J18">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N18">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O18">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P18">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q18">
-        <v>0.03692030777600001</v>
+        <v>9.372013947042333</v>
       </c>
       <c r="R18">
-        <v>0.332282769984</v>
+        <v>84.348125523381</v>
       </c>
       <c r="S18">
-        <v>4.021753566602962E-05</v>
+        <v>0.01005570902115149</v>
       </c>
       <c r="T18">
-        <v>4.021753566602962E-05</v>
+        <v>0.01005570902115149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H19">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I19">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J19">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N19">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O19">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P19">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q19">
-        <v>9.756877883456001</v>
+        <v>0.023410397915</v>
       </c>
       <c r="R19">
-        <v>87.81190095110402</v>
+        <v>0.210693581235</v>
       </c>
       <c r="S19">
-        <v>0.01062823166718196</v>
+        <v>2.511820307063273E-05</v>
       </c>
       <c r="T19">
-        <v>0.01062823166718196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6568320000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.970496</v>
-      </c>
-      <c r="I20">
-        <v>0.01193807017047708</v>
-      </c>
-      <c r="J20">
-        <v>0.01193807017047708</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N20">
-        <v>5.256299</v>
-      </c>
-      <c r="O20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q20">
-        <v>1.150835128256</v>
-      </c>
-      <c r="R20">
-        <v>10.357516154304</v>
-      </c>
-      <c r="S20">
-        <v>0.001253612323525704</v>
-      </c>
-      <c r="T20">
-        <v>0.001253612323525703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6568320000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.970496</v>
-      </c>
-      <c r="I21">
-        <v>0.01193807017047708</v>
-      </c>
-      <c r="J21">
-        <v>0.01193807017047708</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.067123</v>
-      </c>
-      <c r="O21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q21">
-        <v>0.014696178112</v>
-      </c>
-      <c r="R21">
-        <v>0.132265603008</v>
-      </c>
-      <c r="S21">
-        <v>1.60086441033921E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.60086441033921E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H22">
-        <v>1.347404</v>
-      </c>
-      <c r="I22">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J22">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.05620966666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.168629</v>
-      </c>
-      <c r="O22">
-        <v>0.003368847317172573</v>
-      </c>
-      <c r="P22">
-        <v>0.003368847317172572</v>
-      </c>
-      <c r="Q22">
-        <v>0.02524570990177778</v>
-      </c>
-      <c r="R22">
-        <v>0.227211389116</v>
-      </c>
-      <c r="S22">
-        <v>2.750031891795313E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.750031891795313E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H23">
-        <v>1.347404</v>
-      </c>
-      <c r="I23">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J23">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.85444966666667</v>
-      </c>
-      <c r="N23">
-        <v>44.563349</v>
-      </c>
-      <c r="O23">
-        <v>0.8902805491515402</v>
-      </c>
-      <c r="P23">
-        <v>0.8902805491515401</v>
-      </c>
-      <c r="Q23">
-        <v>6.671648299555112</v>
-      </c>
-      <c r="R23">
-        <v>60.044834695996</v>
-      </c>
-      <c r="S23">
-        <v>0.007267470657787498</v>
-      </c>
-      <c r="T23">
-        <v>0.007267470657787497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H24">
-        <v>1.347404</v>
-      </c>
-      <c r="I24">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J24">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N24">
-        <v>5.256299</v>
-      </c>
-      <c r="O24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q24">
-        <v>0.7869286997551113</v>
-      </c>
-      <c r="R24">
-        <v>7.082358297796</v>
-      </c>
-      <c r="S24">
-        <v>0.000857206641966199</v>
-      </c>
-      <c r="T24">
-        <v>0.0008572066419661987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.347404</v>
-      </c>
-      <c r="I25">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J25">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.067123</v>
-      </c>
-      <c r="O25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q25">
-        <v>0.01004908874355556</v>
-      </c>
-      <c r="R25">
-        <v>0.090441798692</v>
-      </c>
-      <c r="S25">
-        <v>1.094653889147044E-05</v>
-      </c>
-      <c r="T25">
-        <v>1.094653889147044E-05</v>
+        <v>2.511820307063272E-05</v>
       </c>
     </row>
   </sheetData>
